--- a/Planilhas Tratadas/Tipo SEXO NACIONAL.xlsx
+++ b/Planilhas Tratadas/Tipo SEXO NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -524,8 +524,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>96535</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96535</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -540,26 +542,40 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>74346</v>
-      </c>
-      <c r="J2" t="n">
-        <v>55206</v>
-      </c>
-      <c r="K2" t="n">
-        <v>51781</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3425</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19140</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3522</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2167</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>74346</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>55206</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>51781</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3425</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>19140</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>3522</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -581,8 +597,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>96738</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96738</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -597,26 +615,40 @@
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>74623</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55767</v>
-      </c>
-      <c r="K3" t="n">
-        <v>52345</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3422</v>
-      </c>
-      <c r="M3" t="n">
-        <v>18856</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3188</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1908</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>74623</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>55767</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>52345</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3422</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>18856</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -638,8 +670,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>96941</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96941</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -654,26 +688,40 @@
       <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>74900</v>
-      </c>
-      <c r="J4" t="n">
-        <v>55824</v>
-      </c>
-      <c r="K4" t="n">
-        <v>52605</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3220</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19076</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2656</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1779</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>74900</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>55824</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>52605</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>19076</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2656</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -695,8 +743,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>97144</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97144</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -711,26 +761,40 @@
       <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>75174</v>
-      </c>
-      <c r="J5" t="n">
-        <v>56027</v>
-      </c>
-      <c r="K5" t="n">
-        <v>52823</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>19147</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2605</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1805</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>75174</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>56027</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>52823</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3205</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>19147</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2605</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -752,8 +816,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>97347</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97347</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -768,26 +834,40 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>75449</v>
-      </c>
-      <c r="J6" t="n">
-        <v>56086</v>
-      </c>
-      <c r="K6" t="n">
-        <v>52447</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3639</v>
-      </c>
-      <c r="M6" t="n">
-        <v>19363</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2706</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1885</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>75449</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>56086</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>52447</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3639</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>19363</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2706</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -809,8 +889,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>97550</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97550</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -825,26 +907,40 @@
       <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>75719</v>
-      </c>
-      <c r="J7" t="n">
-        <v>56421</v>
-      </c>
-      <c r="K7" t="n">
-        <v>53017</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3404</v>
-      </c>
-      <c r="M7" t="n">
-        <v>19298</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2614</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1749</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>75719</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>56421</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>53017</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3404</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>19298</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2614</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1749</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -866,8 +962,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>97753</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97753</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -882,26 +980,40 @@
       <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>75986</v>
-      </c>
-      <c r="J8" t="n">
-        <v>56504</v>
-      </c>
-      <c r="K8" t="n">
-        <v>53297</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3207</v>
-      </c>
-      <c r="M8" t="n">
-        <v>19482</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2469</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1693</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>75986</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>56504</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>53297</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>19482</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2469</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -923,8 +1035,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>97956</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97956</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -939,26 +1053,40 @@
       <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="I9" t="n">
-        <v>76246</v>
-      </c>
-      <c r="J9" t="n">
-        <v>56603</v>
-      </c>
-      <c r="K9" t="n">
-        <v>53713</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2891</v>
-      </c>
-      <c r="M9" t="n">
-        <v>19642</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2456</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1555</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>76246</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>56603</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>53713</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2891</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>19642</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2456</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -980,8 +1108,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>98159</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98159</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -996,26 +1126,40 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>76505</v>
-      </c>
-      <c r="J10" t="n">
-        <v>56570</v>
-      </c>
-      <c r="K10" t="n">
-        <v>53224</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3346</v>
-      </c>
-      <c r="M10" t="n">
-        <v>19935</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2322</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1632</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>76505</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>56570</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>53224</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>19935</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1037,8 +1181,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>98362</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98362</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1053,26 +1199,40 @@
       <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>76761</v>
-      </c>
-      <c r="J11" t="n">
-        <v>56864</v>
-      </c>
-      <c r="K11" t="n">
-        <v>53556</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3308</v>
-      </c>
-      <c r="M11" t="n">
-        <v>19897</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2288</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1535</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>76761</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>56864</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>53556</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>19897</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2288</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1094,8 +1254,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>98564</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98564</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1110,26 +1272,40 @@
       <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>77014</v>
-      </c>
-      <c r="J12" t="n">
-        <v>56967</v>
-      </c>
-      <c r="K12" t="n">
-        <v>53730</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3237</v>
-      </c>
-      <c r="M12" t="n">
-        <v>20047</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2236</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1499</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>77014</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>56967</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>53730</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3237</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>20047</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2236</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1151,8 +1327,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>98767</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98767</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1167,26 +1345,40 @@
       <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>77258</v>
-      </c>
-      <c r="J13" t="n">
-        <v>57069</v>
-      </c>
-      <c r="K13" t="n">
-        <v>53878</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3191</v>
-      </c>
-      <c r="M13" t="n">
-        <v>20190</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2418</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1562</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>77258</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>57069</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>53878</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>3191</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>20190</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2418</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1208,8 +1400,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>98970</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98970</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1224,26 +1418,40 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>77503</v>
-      </c>
-      <c r="J14" t="n">
-        <v>57224</v>
-      </c>
-      <c r="K14" t="n">
-        <v>53416</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3808</v>
-      </c>
-      <c r="M14" t="n">
-        <v>20278</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2477</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1649</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>77503</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>57224</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>53416</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>20278</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2477</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1649</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1265,8 +1473,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>99172</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99172</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1281,26 +1491,40 @@
       <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>77744</v>
-      </c>
-      <c r="J15" t="n">
-        <v>57433</v>
-      </c>
-      <c r="K15" t="n">
-        <v>53308</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4126</v>
-      </c>
-      <c r="M15" t="n">
-        <v>20311</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2649</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1651</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>77744</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>57433</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>53308</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>20311</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2649</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1322,8 +1546,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>99374</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99374</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1338,26 +1564,40 @@
       <c r="H16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>77983</v>
-      </c>
-      <c r="J16" t="n">
-        <v>57714</v>
-      </c>
-      <c r="K16" t="n">
-        <v>53230</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4484</v>
-      </c>
-      <c r="M16" t="n">
-        <v>20269</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2904</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1696</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>77983</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>57714</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>53230</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>20269</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1696</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1379,8 +1619,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>99575</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99575</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1395,26 +1637,40 @@
       <c r="H17" t="n">
         <v>4</v>
       </c>
-      <c r="I17" t="n">
-        <v>78215</v>
-      </c>
-      <c r="J17" t="n">
-        <v>58015</v>
-      </c>
-      <c r="K17" t="n">
-        <v>53524</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4491</v>
-      </c>
-      <c r="M17" t="n">
-        <v>20201</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1990</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1992</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>78215</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>58015</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>53524</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20201</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1436,8 +1692,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>99776</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99776</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1452,26 +1710,40 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>78448</v>
-      </c>
-      <c r="J18" t="n">
-        <v>58276</v>
-      </c>
-      <c r="K18" t="n">
-        <v>52743</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5534</v>
-      </c>
-      <c r="M18" t="n">
-        <v>20171</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2033</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2038</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>78448</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>58276</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>52743</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>5534</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>20171</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1493,8 +1765,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>99976</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99976</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1509,26 +1783,40 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>78678</v>
-      </c>
-      <c r="J19" t="n">
-        <v>58254</v>
-      </c>
-      <c r="K19" t="n">
-        <v>52504</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5750</v>
-      </c>
-      <c r="M19" t="n">
-        <v>20424</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2333</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2278</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>78678</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>58254</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>52504</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>5750</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>20424</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2333</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2278</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1550,8 +1838,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>100176</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>100176</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1566,26 +1856,40 @@
       <c r="H20" t="n">
         <v>3</v>
       </c>
-      <c r="I20" t="n">
-        <v>78907</v>
-      </c>
-      <c r="J20" t="n">
-        <v>57977</v>
-      </c>
-      <c r="K20" t="n">
-        <v>51915</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6062</v>
-      </c>
-      <c r="M20" t="n">
-        <v>20931</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2313</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2392</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>78907</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>57977</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>51915</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>6062</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>20931</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2313</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2392</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1607,8 +1911,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>100375</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>100375</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1623,26 +1929,40 @@
       <c r="H21" t="n">
         <v>4</v>
       </c>
-      <c r="I21" t="n">
-        <v>79134</v>
-      </c>
-      <c r="J21" t="n">
-        <v>58213</v>
-      </c>
-      <c r="K21" t="n">
-        <v>52006</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6207</v>
-      </c>
-      <c r="M21" t="n">
-        <v>20921</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2568</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2628</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>79134</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>58213</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>52006</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>6207</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20921</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2568</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2628</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1664,8 +1984,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>100574</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>100574</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1680,26 +2002,40 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>79361</v>
-      </c>
-      <c r="J22" t="n">
-        <v>58350</v>
-      </c>
-      <c r="K22" t="n">
-        <v>51294</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7057</v>
-      </c>
-      <c r="M22" t="n">
-        <v>21010</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2526</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2809</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>79361</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>58350</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>51294</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>7057</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>21010</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2526</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2809</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1721,8 +2057,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>100773</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>100773</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1737,26 +2075,40 @@
       <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>79585</v>
-      </c>
-      <c r="J23" t="n">
-        <v>58494</v>
-      </c>
-      <c r="K23" t="n">
-        <v>51790</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6704</v>
-      </c>
-      <c r="M23" t="n">
-        <v>21091</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2812</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2776</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>79585</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>58494</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>51790</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>6704</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>21091</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2776</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1778,8 +2130,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>100971</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>100971</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1794,26 +2148,40 @@
       <c r="H24" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="n">
-        <v>79806</v>
-      </c>
-      <c r="J24" t="n">
-        <v>58768</v>
-      </c>
-      <c r="K24" t="n">
-        <v>52323</v>
-      </c>
-      <c r="L24" t="n">
-        <v>6444</v>
-      </c>
-      <c r="M24" t="n">
-        <v>21038</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2861</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2938</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>79806</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>58768</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>52323</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>6444</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>21038</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2861</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1835,8 +2203,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>101168</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>101168</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1851,26 +2221,40 @@
       <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="I25" t="n">
-        <v>80021</v>
-      </c>
-      <c r="J25" t="n">
-        <v>58976</v>
-      </c>
-      <c r="K25" t="n">
-        <v>52815</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6161</v>
-      </c>
-      <c r="M25" t="n">
-        <v>21045</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3028</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2995</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>80021</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>58976</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>52815</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>6161</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>21045</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>3028</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2995</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1892,8 +2276,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>101365</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>101365</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1908,26 +2294,40 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>80237</v>
-      </c>
-      <c r="J26" t="n">
-        <v>59025</v>
-      </c>
-      <c r="K26" t="n">
-        <v>52189</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6836</v>
-      </c>
-      <c r="M26" t="n">
-        <v>21212</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2995</v>
-      </c>
-      <c r="O26" t="n">
-        <v>3156</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>80237</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>59025</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>52189</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>6836</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>21212</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2995</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>3156</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1949,8 +2349,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>101561</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>101561</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1965,26 +2367,40 @@
       <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
-        <v>80450</v>
-      </c>
-      <c r="J27" t="n">
-        <v>58849</v>
-      </c>
-      <c r="K27" t="n">
-        <v>52371</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6478</v>
-      </c>
-      <c r="M27" t="n">
-        <v>21600</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3086</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3343</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>80450</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>58849</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>52371</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>6478</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>21600</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>3086</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2006,8 +2422,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>101756</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>101756</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2022,26 +2440,40 @@
       <c r="H28" t="n">
         <v>3</v>
       </c>
-      <c r="I28" t="n">
-        <v>80664</v>
-      </c>
-      <c r="J28" t="n">
-        <v>59358</v>
-      </c>
-      <c r="K28" t="n">
-        <v>53156</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6201</v>
-      </c>
-      <c r="M28" t="n">
-        <v>21306</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3268</v>
-      </c>
-      <c r="O28" t="n">
-        <v>3192</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>80664</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>59358</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>53156</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>6201</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>21306</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>3268</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>3192</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2063,8 +2495,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>101951</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>101951</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2079,26 +2513,40 @@
       <c r="H29" t="n">
         <v>4</v>
       </c>
-      <c r="I29" t="n">
-        <v>80877</v>
-      </c>
-      <c r="J29" t="n">
-        <v>59365</v>
-      </c>
-      <c r="K29" t="n">
-        <v>53396</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5969</v>
-      </c>
-      <c r="M29" t="n">
-        <v>21511</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3207</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3164</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>80877</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>59365</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>53396</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>5969</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>21511</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2120,8 +2568,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>102144</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>102144</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2136,26 +2586,40 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>81089</v>
-      </c>
-      <c r="J30" t="n">
-        <v>59554</v>
-      </c>
-      <c r="K30" t="n">
-        <v>53060</v>
-      </c>
-      <c r="L30" t="n">
-        <v>6494</v>
-      </c>
-      <c r="M30" t="n">
-        <v>21535</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3242</v>
-      </c>
-      <c r="O30" t="n">
-        <v>3336</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>81089</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>59554</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>53060</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>6494</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>21535</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>3242</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2177,8 +2641,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>102337</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>102337</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2193,26 +2659,40 @@
       <c r="H31" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
-        <v>81299</v>
-      </c>
-      <c r="J31" t="n">
-        <v>59813</v>
-      </c>
-      <c r="K31" t="n">
-        <v>53650</v>
-      </c>
-      <c r="L31" t="n">
-        <v>6163</v>
-      </c>
-      <c r="M31" t="n">
-        <v>21486</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3429</v>
-      </c>
-      <c r="O31" t="n">
-        <v>3293</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>81299</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>59813</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>53650</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>6163</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>21486</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>3293</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2234,8 +2714,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>102529</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>102529</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2250,26 +2732,40 @@
       <c r="H32" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="n">
-        <v>81508</v>
-      </c>
-      <c r="J32" t="n">
-        <v>60031</v>
-      </c>
-      <c r="K32" t="n">
-        <v>54040</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5990</v>
-      </c>
-      <c r="M32" t="n">
-        <v>21477</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3333</v>
-      </c>
-      <c r="O32" t="n">
-        <v>3157</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>81508</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>60031</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>54040</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>5990</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>21477</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2291,8 +2787,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>102719</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>102719</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2307,26 +2805,40 @@
       <c r="H33" t="n">
         <v>4</v>
       </c>
-      <c r="I33" t="n">
-        <v>81714</v>
-      </c>
-      <c r="J33" t="n">
-        <v>60007</v>
-      </c>
-      <c r="K33" t="n">
-        <v>54468</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5539</v>
-      </c>
-      <c r="M33" t="n">
-        <v>21707</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3211</v>
-      </c>
-      <c r="O33" t="n">
-        <v>3110</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>81714</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>60007</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>54468</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>5539</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>21707</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2348,8 +2860,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>102908</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>102908</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2364,26 +2878,40 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>81920</v>
-      </c>
-      <c r="J34" t="n">
-        <v>59571</v>
-      </c>
-      <c r="K34" t="n">
-        <v>53394</v>
-      </c>
-      <c r="L34" t="n">
-        <v>6177</v>
-      </c>
-      <c r="M34" t="n">
-        <v>22349</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3094</v>
-      </c>
-      <c r="O34" t="n">
-        <v>3402</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>81920</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>59571</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>53394</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>6177</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>22349</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>3094</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>3402</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2405,8 +2933,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>104559</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>104559</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2421,26 +2951,40 @@
       <c r="H35" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="n">
-        <v>83655</v>
-      </c>
-      <c r="J35" t="n">
-        <v>60744</v>
-      </c>
-      <c r="K35" t="n">
-        <v>56167</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4577</v>
-      </c>
-      <c r="M35" t="n">
-        <v>22911</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3033</v>
-      </c>
-      <c r="O35" t="n">
-        <v>3135</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>83655</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>60744</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>56167</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>22911</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>3033</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2462,8 +3006,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>104735</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>104735</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2478,26 +3024,40 @@
       <c r="H36" t="n">
         <v>3</v>
       </c>
-      <c r="I36" t="n">
-        <v>83841</v>
-      </c>
-      <c r="J36" t="n">
-        <v>60873</v>
-      </c>
-      <c r="K36" t="n">
-        <v>56665</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4208</v>
-      </c>
-      <c r="M36" t="n">
-        <v>22968</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2886</v>
-      </c>
-      <c r="O36" t="n">
-        <v>3048</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>83841</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>60873</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>56665</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>4208</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>22968</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>3048</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2519,8 +3079,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>104910</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>104910</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2535,26 +3097,40 @@
       <c r="H37" t="n">
         <v>4</v>
       </c>
-      <c r="I37" t="n">
-        <v>84025</v>
-      </c>
-      <c r="J37" t="n">
-        <v>60604</v>
-      </c>
-      <c r="K37" t="n">
-        <v>56694</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3910</v>
-      </c>
-      <c r="M37" t="n">
-        <v>23421</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2515</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2843</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>84025</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>60604</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>56694</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>3910</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>23421</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2515</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2843</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2576,8 +3152,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>105084</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>105084</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2592,26 +3170,40 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>84207</v>
-      </c>
-      <c r="J38" t="n">
-        <v>60304</v>
-      </c>
-      <c r="K38" t="n">
-        <v>55937</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4367</v>
-      </c>
-      <c r="M38" t="n">
-        <v>23904</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2396</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2854</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>84207</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>60304</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>55937</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>4367</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>23904</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2396</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2854</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2633,8 +3225,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>105256</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>105256</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2649,26 +3243,40 @@
       <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="n">
-        <v>84387</v>
-      </c>
-      <c r="J39" t="n">
-        <v>60528</v>
-      </c>
-      <c r="K39" t="n">
-        <v>56379</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4149</v>
-      </c>
-      <c r="M39" t="n">
-        <v>23859</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2416</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2638</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>84387</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>60528</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>56379</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>23859</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2416</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2638</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2690,8 +3298,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>105426</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>105426</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2706,26 +3316,40 @@
       <c r="H40" t="n">
         <v>3</v>
       </c>
-      <c r="I40" t="n">
-        <v>84566</v>
-      </c>
-      <c r="J40" t="n">
-        <v>60885</v>
-      </c>
-      <c r="K40" t="n">
-        <v>56981</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3904</v>
-      </c>
-      <c r="M40" t="n">
-        <v>23681</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2518</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2542</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>84566</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>60885</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>56981</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>3904</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>23681</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2518</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2747,8 +3371,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>100539</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>100539</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2763,26 +3389,40 @@
       <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="I41" t="n">
-        <v>79255</v>
-      </c>
-      <c r="J41" t="n">
-        <v>40459</v>
-      </c>
-      <c r="K41" t="n">
-        <v>36230</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4228</v>
-      </c>
-      <c r="M41" t="n">
-        <v>38797</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3491</v>
-      </c>
-      <c r="O41" t="n">
-        <v>4518</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>79255</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>40459</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>36230</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>38797</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>3491</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2804,8 +3444,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>100765</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>100765</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2820,26 +3462,40 @@
       <c r="H42" t="n">
         <v>2</v>
       </c>
-      <c r="I42" t="n">
-        <v>79557</v>
-      </c>
-      <c r="J42" t="n">
-        <v>41244</v>
-      </c>
-      <c r="K42" t="n">
-        <v>37302</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3942</v>
-      </c>
-      <c r="M42" t="n">
-        <v>38313</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3154</v>
-      </c>
-      <c r="O42" t="n">
-        <v>3808</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>79557</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>41244</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>37302</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>38313</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>3154</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2861,8 +3517,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>100990</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>100990</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2877,26 +3535,40 @@
       <c r="H43" t="n">
         <v>3</v>
       </c>
-      <c r="I43" t="n">
-        <v>79857</v>
-      </c>
-      <c r="J43" t="n">
-        <v>41437</v>
-      </c>
-      <c r="K43" t="n">
-        <v>37715</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3722</v>
-      </c>
-      <c r="M43" t="n">
-        <v>38420</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2747</v>
-      </c>
-      <c r="O43" t="n">
-        <v>3311</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>79857</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>41437</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>37715</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>38420</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2747</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>3311</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2918,8 +3590,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>101216</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>101216</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2934,26 +3608,40 @@
       <c r="H44" t="n">
         <v>4</v>
       </c>
-      <c r="I44" t="n">
-        <v>80155</v>
-      </c>
-      <c r="J44" t="n">
-        <v>41295</v>
-      </c>
-      <c r="K44" t="n">
-        <v>37770</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3525</v>
-      </c>
-      <c r="M44" t="n">
-        <v>38860</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2671</v>
-      </c>
-      <c r="O44" t="n">
-        <v>3263</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>80155</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>41295</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>37770</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>38860</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>3263</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2975,8 +3663,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>101442</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>101442</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2991,26 +3681,40 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="n">
-        <v>80453</v>
-      </c>
-      <c r="J45" t="n">
-        <v>41468</v>
-      </c>
-      <c r="K45" t="n">
-        <v>37241</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4227</v>
-      </c>
-      <c r="M45" t="n">
-        <v>38985</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2566</v>
-      </c>
-      <c r="O45" t="n">
-        <v>3363</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>80453</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>41468</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>37241</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>38985</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2566</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>3363</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3032,8 +3736,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>101668</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>101668</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3048,26 +3754,40 @@
       <c r="H46" t="n">
         <v>2</v>
       </c>
-      <c r="I46" t="n">
-        <v>80747</v>
-      </c>
-      <c r="J46" t="n">
-        <v>41821</v>
-      </c>
-      <c r="K46" t="n">
-        <v>37832</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3988</v>
-      </c>
-      <c r="M46" t="n">
-        <v>38926</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2521</v>
-      </c>
-      <c r="O46" t="n">
-        <v>3072</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>80747</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>41821</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>37832</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>38926</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2521</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3089,8 +3809,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>101893</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>101893</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3105,26 +3827,40 @@
       <c r="H47" t="n">
         <v>3</v>
       </c>
-      <c r="I47" t="n">
-        <v>81037</v>
-      </c>
-      <c r="J47" t="n">
-        <v>41850</v>
-      </c>
-      <c r="K47" t="n">
-        <v>38141</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3709</v>
-      </c>
-      <c r="M47" t="n">
-        <v>39187</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2400</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2993</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>81037</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>41850</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>38141</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>39187</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2993</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -3146,8 +3882,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>102118</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>102118</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3162,26 +3900,40 @@
       <c r="H48" t="n">
         <v>4</v>
       </c>
-      <c r="I48" t="n">
-        <v>81319</v>
-      </c>
-      <c r="J48" t="n">
-        <v>41717</v>
-      </c>
-      <c r="K48" t="n">
-        <v>38457</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3260</v>
-      </c>
-      <c r="M48" t="n">
-        <v>39602</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2323</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2864</v>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>81319</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>41717</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>38457</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>39602</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2864</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -3203,8 +3955,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>102343</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>102343</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3219,26 +3973,40 @@
       <c r="H49" t="n">
         <v>1</v>
       </c>
-      <c r="I49" t="n">
-        <v>81601</v>
-      </c>
-      <c r="J49" t="n">
-        <v>42027</v>
-      </c>
-      <c r="K49" t="n">
-        <v>38232</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3795</v>
-      </c>
-      <c r="M49" t="n">
-        <v>39574</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2209</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2733</v>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>81601</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>42027</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>38232</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>39574</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2209</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2733</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3260,8 +4028,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>102568</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>102568</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3276,26 +4046,40 @@
       <c r="H50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="n">
-        <v>81880</v>
-      </c>
-      <c r="J50" t="n">
-        <v>42114</v>
-      </c>
-      <c r="K50" t="n">
-        <v>38562</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3553</v>
-      </c>
-      <c r="M50" t="n">
-        <v>39765</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2135</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2555</v>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>81880</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>42114</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>38562</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>3553</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>39765</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>2555</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -3317,8 +4101,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>102792</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>102792</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3333,26 +4119,40 @@
       <c r="H51" t="n">
         <v>3</v>
       </c>
-      <c r="I51" t="n">
-        <v>82154</v>
-      </c>
-      <c r="J51" t="n">
-        <v>42252</v>
-      </c>
-      <c r="K51" t="n">
-        <v>38677</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3575</v>
-      </c>
-      <c r="M51" t="n">
-        <v>39902</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2206</v>
-      </c>
-      <c r="O51" t="n">
-        <v>2572</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>82154</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>42252</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>38677</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>3575</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>39902</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2206</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>2572</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -3374,8 +4174,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>103016</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>103016</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3390,26 +4192,40 @@
       <c r="H52" t="n">
         <v>4</v>
       </c>
-      <c r="I52" t="n">
-        <v>82420</v>
-      </c>
-      <c r="J52" t="n">
-        <v>42448</v>
-      </c>
-      <c r="K52" t="n">
-        <v>39084</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3364</v>
-      </c>
-      <c r="M52" t="n">
-        <v>39973</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2279</v>
-      </c>
-      <c r="O52" t="n">
-        <v>2688</v>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>82420</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>42448</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>39084</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>3364</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>39973</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2279</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>2688</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -3431,8 +4247,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>103239</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>103239</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3447,26 +4265,40 @@
       <c r="H53" t="n">
         <v>1</v>
       </c>
-      <c r="I53" t="n">
-        <v>82686</v>
-      </c>
-      <c r="J53" t="n">
-        <v>42782</v>
-      </c>
-      <c r="K53" t="n">
-        <v>38545</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4237</v>
-      </c>
-      <c r="M53" t="n">
-        <v>39904</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2305</v>
-      </c>
-      <c r="O53" t="n">
-        <v>2854</v>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>82686</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>42782</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>38545</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>39904</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>2854</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3488,8 +4320,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>103462</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>103462</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3504,26 +4338,40 @@
       <c r="H54" t="n">
         <v>2</v>
       </c>
-      <c r="I54" t="n">
-        <v>82949</v>
-      </c>
-      <c r="J54" t="n">
-        <v>43313</v>
-      </c>
-      <c r="K54" t="n">
-        <v>38941</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4372</v>
-      </c>
-      <c r="M54" t="n">
-        <v>39636</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2601</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2763</v>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>82949</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>43313</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>38941</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>4372</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>39636</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2601</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2763</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3545,8 +4393,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>103684</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>103684</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3561,26 +4411,40 @@
       <c r="H55" t="n">
         <v>3</v>
       </c>
-      <c r="I55" t="n">
-        <v>83209</v>
-      </c>
-      <c r="J55" t="n">
-        <v>43640</v>
-      </c>
-      <c r="K55" t="n">
-        <v>38971</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4669</v>
-      </c>
-      <c r="M55" t="n">
-        <v>39570</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2631</v>
-      </c>
-      <c r="O55" t="n">
-        <v>2827</v>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>83209</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>43640</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>38971</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>39570</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2631</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>2827</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3602,8 +4466,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>103907</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>103907</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3618,26 +4484,40 @@
       <c r="H56" t="n">
         <v>4</v>
       </c>
-      <c r="I56" t="n">
-        <v>83464</v>
-      </c>
-      <c r="J56" t="n">
-        <v>43573</v>
-      </c>
-      <c r="K56" t="n">
-        <v>38842</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4731</v>
-      </c>
-      <c r="M56" t="n">
-        <v>39891</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2104</v>
-      </c>
-      <c r="O56" t="n">
-        <v>3279</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>83464</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>43573</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>38842</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>39891</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>3279</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -3659,8 +4539,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>104128</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>104128</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3675,26 +4557,40 @@
       <c r="H57" t="n">
         <v>1</v>
       </c>
-      <c r="I57" t="n">
-        <v>83718</v>
-      </c>
-      <c r="J57" t="n">
-        <v>43713</v>
-      </c>
-      <c r="K57" t="n">
-        <v>37966</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5748</v>
-      </c>
-      <c r="M57" t="n">
-        <v>40005</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2167</v>
-      </c>
-      <c r="O57" t="n">
-        <v>3340</v>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>83718</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>43713</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>37966</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>5748</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>40005</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>3340</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -3716,8 +4612,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>104349</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>104349</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3732,26 +4630,40 @@
       <c r="H58" t="n">
         <v>2</v>
       </c>
-      <c r="I58" t="n">
-        <v>83970</v>
-      </c>
-      <c r="J58" t="n">
-        <v>44135</v>
-      </c>
-      <c r="K58" t="n">
-        <v>38169</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5966</v>
-      </c>
-      <c r="M58" t="n">
-        <v>39835</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2479</v>
-      </c>
-      <c r="O58" t="n">
-        <v>3911</v>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>83970</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>44135</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>38169</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>5966</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>39835</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>3911</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -3773,8 +4685,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>104570</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>104570</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3789,26 +4703,40 @@
       <c r="H59" t="n">
         <v>3</v>
       </c>
-      <c r="I59" t="n">
-        <v>84221</v>
-      </c>
-      <c r="J59" t="n">
-        <v>44001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>37907</v>
-      </c>
-      <c r="L59" t="n">
-        <v>6094</v>
-      </c>
-      <c r="M59" t="n">
-        <v>40220</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2480</v>
-      </c>
-      <c r="O59" t="n">
-        <v>3665</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>84221</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>44001</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>37907</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>6094</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>40220</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>3665</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -3830,8 +4758,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>104790</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>104790</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3846,26 +4776,40 @@
       <c r="H60" t="n">
         <v>4</v>
       </c>
-      <c r="I60" t="n">
-        <v>84469</v>
-      </c>
-      <c r="J60" t="n">
-        <v>44437</v>
-      </c>
-      <c r="K60" t="n">
-        <v>38168</v>
-      </c>
-      <c r="L60" t="n">
-        <v>6269</v>
-      </c>
-      <c r="M60" t="n">
-        <v>40032</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2700</v>
-      </c>
-      <c r="O60" t="n">
-        <v>3983</v>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>84469</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>44437</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>38168</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>6269</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>40032</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>3983</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -3887,8 +4831,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>105009</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>105009</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3903,26 +4849,40 @@
       <c r="H61" t="n">
         <v>1</v>
       </c>
-      <c r="I61" t="n">
-        <v>84716</v>
-      </c>
-      <c r="J61" t="n">
-        <v>44801</v>
-      </c>
-      <c r="K61" t="n">
-        <v>37552</v>
-      </c>
-      <c r="L61" t="n">
-        <v>7248</v>
-      </c>
-      <c r="M61" t="n">
-        <v>39915</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2719</v>
-      </c>
-      <c r="O61" t="n">
-        <v>4198</v>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>84716</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>44801</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>37552</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>39915</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2719</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -3944,8 +4904,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>105227</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>105227</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3960,26 +4922,40 @@
       <c r="H62" t="n">
         <v>2</v>
       </c>
-      <c r="I62" t="n">
-        <v>84961</v>
-      </c>
-      <c r="J62" t="n">
-        <v>45297</v>
-      </c>
-      <c r="K62" t="n">
-        <v>38403</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6894</v>
-      </c>
-      <c r="M62" t="n">
-        <v>39663</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2995</v>
-      </c>
-      <c r="O62" t="n">
-        <v>4150</v>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>84961</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>45297</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>38403</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>6894</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>39663</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2995</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>4150</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4001,8 +4977,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>105444</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>105444</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -4017,26 +4995,40 @@
       <c r="H63" t="n">
         <v>3</v>
       </c>
-      <c r="I63" t="n">
-        <v>85202</v>
-      </c>
-      <c r="J63" t="n">
-        <v>45568</v>
-      </c>
-      <c r="K63" t="n">
-        <v>38945</v>
-      </c>
-      <c r="L63" t="n">
-        <v>6623</v>
-      </c>
-      <c r="M63" t="n">
-        <v>39634</v>
-      </c>
-      <c r="N63" t="n">
-        <v>3396</v>
-      </c>
-      <c r="O63" t="n">
-        <v>4490</v>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>85202</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>45568</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>38945</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>6623</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>39634</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>4490</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4058,8 +5050,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>105661</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>105661</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4074,26 +5068,40 @@
       <c r="H64" t="n">
         <v>4</v>
       </c>
-      <c r="I64" t="n">
-        <v>85437</v>
-      </c>
-      <c r="J64" t="n">
-        <v>45705</v>
-      </c>
-      <c r="K64" t="n">
-        <v>39414</v>
-      </c>
-      <c r="L64" t="n">
-        <v>6292</v>
-      </c>
-      <c r="M64" t="n">
-        <v>39732</v>
-      </c>
-      <c r="N64" t="n">
-        <v>3431</v>
-      </c>
-      <c r="O64" t="n">
-        <v>4546</v>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>85437</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>45705</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>39414</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>39732</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>3431</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>4546</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4115,8 +5123,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>105876</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>105876</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4131,26 +5141,40 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="n">
-        <v>85672</v>
-      </c>
-      <c r="J65" t="n">
-        <v>45726</v>
-      </c>
-      <c r="K65" t="n">
-        <v>38690</v>
-      </c>
-      <c r="L65" t="n">
-        <v>7036</v>
-      </c>
-      <c r="M65" t="n">
-        <v>39946</v>
-      </c>
-      <c r="N65" t="n">
-        <v>3208</v>
-      </c>
-      <c r="O65" t="n">
-        <v>4556</v>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>85672</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>45726</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>38690</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>7036</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>39946</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4172,8 +5196,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>106090</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>106090</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4188,26 +5214,40 @@
       <c r="H66" t="n">
         <v>2</v>
       </c>
-      <c r="I66" t="n">
-        <v>85904</v>
-      </c>
-      <c r="J66" t="n">
-        <v>45761</v>
-      </c>
-      <c r="K66" t="n">
-        <v>39090</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6670</v>
-      </c>
-      <c r="M66" t="n">
-        <v>40143</v>
-      </c>
-      <c r="N66" t="n">
-        <v>3429</v>
-      </c>
-      <c r="O66" t="n">
-        <v>4728</v>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>85904</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>45761</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>39090</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>6670</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>40143</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4229,8 +5269,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>106304</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>106304</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4245,26 +5287,40 @@
       <c r="H67" t="n">
         <v>3</v>
       </c>
-      <c r="I67" t="n">
-        <v>86137</v>
-      </c>
-      <c r="J67" t="n">
-        <v>46266</v>
-      </c>
-      <c r="K67" t="n">
-        <v>39773</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6493</v>
-      </c>
-      <c r="M67" t="n">
-        <v>39871</v>
-      </c>
-      <c r="N67" t="n">
-        <v>3602</v>
-      </c>
-      <c r="O67" t="n">
-        <v>4690</v>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>86137</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>46266</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>39773</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>6493</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>39871</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4286,8 +5342,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>106517</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>106517</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -4302,26 +5360,40 @@
       <c r="H68" t="n">
         <v>4</v>
       </c>
-      <c r="I68" t="n">
-        <v>86369</v>
-      </c>
-      <c r="J68" t="n">
-        <v>46582</v>
-      </c>
-      <c r="K68" t="n">
-        <v>40138</v>
-      </c>
-      <c r="L68" t="n">
-        <v>6444</v>
-      </c>
-      <c r="M68" t="n">
-        <v>39787</v>
-      </c>
-      <c r="N68" t="n">
-        <v>3709</v>
-      </c>
-      <c r="O68" t="n">
-        <v>4638</v>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>86369</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>46582</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>40138</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>6444</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>39787</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -4343,8 +5415,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>106729</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>106729</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4359,26 +5433,40 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="n">
-        <v>86601</v>
-      </c>
-      <c r="J69" t="n">
-        <v>46719</v>
-      </c>
-      <c r="K69" t="n">
-        <v>39562</v>
-      </c>
-      <c r="L69" t="n">
-        <v>7157</v>
-      </c>
-      <c r="M69" t="n">
-        <v>39882</v>
-      </c>
-      <c r="N69" t="n">
-        <v>3563</v>
-      </c>
-      <c r="O69" t="n">
-        <v>4832</v>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>86601</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>46719</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>39562</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>39882</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>4832</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4400,8 +5488,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>106940</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>106940</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4416,26 +5506,40 @@
       <c r="H70" t="n">
         <v>2</v>
       </c>
-      <c r="I70" t="n">
-        <v>86829</v>
-      </c>
-      <c r="J70" t="n">
-        <v>47357</v>
-      </c>
-      <c r="K70" t="n">
-        <v>40509</v>
-      </c>
-      <c r="L70" t="n">
-        <v>6848</v>
-      </c>
-      <c r="M70" t="n">
-        <v>39472</v>
-      </c>
-      <c r="N70" t="n">
-        <v>3969</v>
-      </c>
-      <c r="O70" t="n">
-        <v>4963</v>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>86829</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>47357</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>40509</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>6848</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>39472</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>3969</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>4963</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -4457,8 +5561,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>107149</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>107149</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4473,26 +5579,40 @@
       <c r="H71" t="n">
         <v>3</v>
       </c>
-      <c r="I71" t="n">
-        <v>87057</v>
-      </c>
-      <c r="J71" t="n">
-        <v>47504</v>
-      </c>
-      <c r="K71" t="n">
-        <v>40696</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6808</v>
-      </c>
-      <c r="M71" t="n">
-        <v>39553</v>
-      </c>
-      <c r="N71" t="n">
-        <v>3769</v>
-      </c>
-      <c r="O71" t="n">
-        <v>4763</v>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>87057</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>47504</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>40696</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>6808</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>39553</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>3769</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -4514,8 +5634,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>107358</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>107358</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4530,26 +5652,40 @@
       <c r="H72" t="n">
         <v>4</v>
       </c>
-      <c r="I72" t="n">
-        <v>87282</v>
-      </c>
-      <c r="J72" t="n">
-        <v>47411</v>
-      </c>
-      <c r="K72" t="n">
-        <v>41047</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6363</v>
-      </c>
-      <c r="M72" t="n">
-        <v>39872</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3645</v>
-      </c>
-      <c r="O72" t="n">
-        <v>4652</v>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>87282</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>47411</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>41047</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>6363</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>39872</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>3645</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>4652</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -4571,8 +5707,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>107566</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>107566</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4587,26 +5725,40 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="n">
-        <v>87507</v>
-      </c>
-      <c r="J73" t="n">
-        <v>46692</v>
-      </c>
-      <c r="K73" t="n">
-        <v>39721</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6971</v>
-      </c>
-      <c r="M73" t="n">
-        <v>40815</v>
-      </c>
-      <c r="N73" t="n">
-        <v>3427</v>
-      </c>
-      <c r="O73" t="n">
-        <v>4921</v>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>87507</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>46692</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>39721</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>40815</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>3427</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>4921</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -4628,8 +5780,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>109381</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>109381</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4644,26 +5798,40 @@
       <c r="H74" t="n">
         <v>2</v>
       </c>
-      <c r="I74" t="n">
-        <v>89412</v>
-      </c>
-      <c r="J74" t="n">
-        <v>47605</v>
-      </c>
-      <c r="K74" t="n">
-        <v>42102</v>
-      </c>
-      <c r="L74" t="n">
-        <v>5503</v>
-      </c>
-      <c r="M74" t="n">
-        <v>41807</v>
-      </c>
-      <c r="N74" t="n">
-        <v>3536</v>
-      </c>
-      <c r="O74" t="n">
-        <v>4951</v>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>89412</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>47605</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>42102</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>5503</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>41807</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>3536</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -4685,8 +5853,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>109576</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>109576</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4701,26 +5871,40 @@
       <c r="H75" t="n">
         <v>3</v>
       </c>
-      <c r="I75" t="n">
-        <v>89617</v>
-      </c>
-      <c r="J75" t="n">
-        <v>47856</v>
-      </c>
-      <c r="K75" t="n">
-        <v>42604</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5252</v>
-      </c>
-      <c r="M75" t="n">
-        <v>41761</v>
-      </c>
-      <c r="N75" t="n">
-        <v>3308</v>
-      </c>
-      <c r="O75" t="n">
-        <v>4725</v>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>89617</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>47856</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>42604</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>5252</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>41761</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -4742,8 +5926,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>109770</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>109770</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4758,26 +5944,40 @@
       <c r="H76" t="n">
         <v>4</v>
       </c>
-      <c r="I76" t="n">
-        <v>89820</v>
-      </c>
-      <c r="J76" t="n">
-        <v>47338</v>
-      </c>
-      <c r="K76" t="n">
-        <v>42676</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4662</v>
-      </c>
-      <c r="M76" t="n">
-        <v>42482</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2914</v>
-      </c>
-      <c r="O76" t="n">
-        <v>4462</v>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>89820</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>47338</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>42676</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>4662</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>42482</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>4462</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4799,8 +5999,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>109962</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>109962</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4815,26 +6017,40 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
-      <c r="I77" t="n">
-        <v>90021</v>
-      </c>
-      <c r="J77" t="n">
-        <v>46953</v>
-      </c>
-      <c r="K77" t="n">
-        <v>41888</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5065</v>
-      </c>
-      <c r="M77" t="n">
-        <v>43068</v>
-      </c>
-      <c r="N77" t="n">
-        <v>2618</v>
-      </c>
-      <c r="O77" t="n">
-        <v>4277</v>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>90021</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>46953</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>41888</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>5065</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>43068</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -4856,8 +6072,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>110152</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>110152</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4872,26 +6090,40 @@
       <c r="H78" t="n">
         <v>2</v>
       </c>
-      <c r="I78" t="n">
-        <v>90220</v>
-      </c>
-      <c r="J78" t="n">
-        <v>47029</v>
-      </c>
-      <c r="K78" t="n">
-        <v>42530</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4498</v>
-      </c>
-      <c r="M78" t="n">
-        <v>43191</v>
-      </c>
-      <c r="N78" t="n">
-        <v>2717</v>
-      </c>
-      <c r="O78" t="n">
-        <v>3933</v>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>90220</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>47029</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>42530</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>4498</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>43191</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>2717</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>3933</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -4913,8 +6145,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>110341</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>110341</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4929,26 +6163,40 @@
       <c r="H79" t="n">
         <v>3</v>
       </c>
-      <c r="I79" t="n">
-        <v>90417</v>
-      </c>
-      <c r="J79" t="n">
-        <v>47269</v>
-      </c>
-      <c r="K79" t="n">
-        <v>42857</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4412</v>
-      </c>
-      <c r="M79" t="n">
-        <v>43148</v>
-      </c>
-      <c r="N79" t="n">
-        <v>2807</v>
-      </c>
-      <c r="O79" t="n">
-        <v>3967</v>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>90417</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>47269</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>42857</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>4412</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>43148</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
       </c>
     </row>
   </sheetData>
